--- a/second-order/1879/June1879.xlsx
+++ b/second-order/1879/June1879.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27016"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1879\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15528" documentId="13_ncr:1_{D7C1A991-7FC6-4604-AAF6-A8A9FECE5BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2D9367B-9166-45D9-A189-B4B21852D04F}"/>
+  <xr:revisionPtr revIDLastSave="16864" documentId="13_ncr:1_{D7C1A991-7FC6-4604-AAF6-A8A9FECE5BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54251B5D-1428-48D7-A04F-A858F2B0E021}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="10" activeTab="26" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="26" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Laudale" sheetId="27" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="100">
   <si>
     <t>Barometer</t>
   </si>
@@ -277,10 +277,10 @@
     <t>Churchstoke, Montgomery</t>
   </si>
   <si>
-    <t>Audley End</t>
+    <t>mean 60.9</t>
   </si>
   <si>
-    <t>./385</t>
+    <t>Audley End</t>
   </si>
   <si>
     <t xml:space="preserve">Cheltenham </t>
@@ -331,13 +331,13 @@
     <t>Dartmoor</t>
   </si>
   <si>
+    <t>sum 15.900</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
     <t>Babbacombe, Devon</t>
-  </si>
-  <si>
-    <t>.1.230</t>
   </si>
   <si>
     <t>St Aubin's, Jersey</t>
@@ -403,7 +403,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -536,11 +536,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,6 +677,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,12 +713,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6BBBF1-A4DB-41BA-A184-52AB6B954A47}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,34 +1047,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -3052,11 +3131,15 @@
       <c r="N34" s="12">
         <v>87</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.1</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.2</v>
       </c>
@@ -3066,7 +3149,7 @@
       <c r="T34" s="12">
         <v>8.4</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="25">
         <v>4.5</v>
       </c>
     </row>
@@ -3086,11 +3169,11 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED182907-3967-4840-BF65-EDCDC4C0836B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
+      <pane ySplit="3" topLeftCell="K27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T35" sqref="T35"/>
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3110,34 +3193,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -3369,7 +3452,7 @@
         <v>57.7</v>
       </c>
       <c r="K6" s="1">
-        <v>0.39</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L6" s="6">
         <v>0.24099999999999999</v>
@@ -3984,7 +4067,7 @@
         <v>3</v>
       </c>
       <c r="U15" s="9">
-        <v>90</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -5194,11 +5277,15 @@
       <c r="N34" s="12">
         <v>86.5</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>3.3</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.2000000000000002</v>
       </c>
@@ -5208,9 +5295,26 @@
       <c r="T34" s="12">
         <v>6.9</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="25">
         <v>4.6500000000000004</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5230,8 +5334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69065F44-B6FE-4052-938F-A53648DF520D}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="K23" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5244,34 +5348,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7328,11 +7432,15 @@
       <c r="N34" s="12">
         <v>91.2</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>3.1</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.2000000000000002</v>
       </c>
@@ -7361,10 +7469,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80476FA-4182-4264-80A8-C7112CFAE3A7}">
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView topLeftCell="R26" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7377,34 +7485,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7601,7 +7709,7 @@
         <v>10</v>
       </c>
       <c r="U5" s="9">
-        <v>0.29210000000000003</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
@@ -7878,7 +7986,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="20">
-        <v>29685</v>
+        <v>29.684999999999999</v>
       </c>
       <c r="F10" s="6">
         <v>29.558</v>
@@ -8446,7 +8554,7 @@
         <v>6</v>
       </c>
       <c r="U18" s="9">
-        <v>0.56000000000000005</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
@@ -9477,6 +9585,11 @@
       </c>
       <c r="U34" s="13">
         <v>4.7610000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="J35" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -9496,8 +9609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD56A264-5FEA-4FE0-A75E-E8494B0F0A51}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="L22" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9510,34 +9623,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -9609,7 +9722,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -9674,7 +9787,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -9739,7 +9852,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -9804,7 +9917,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -9869,7 +9982,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -9934,7 +10047,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -9958,7 +10071,7 @@
         <v>57</v>
       </c>
       <c r="I9" s="1">
-        <v>560.6</v>
+        <v>50.6</v>
       </c>
       <c r="J9" s="6">
         <v>61.9</v>
@@ -9999,7 +10112,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -10064,7 +10177,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -10129,7 +10242,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -10194,7 +10307,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -10259,7 +10372,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -10324,7 +10437,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -10353,8 +10466,8 @@
       <c r="J15" s="6">
         <v>62.3</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>72</v>
+      <c r="K15" s="1">
+        <v>0.38500000000000001</v>
       </c>
       <c r="L15" s="6">
         <v>0.34300000000000003</v>
@@ -10389,7 +10502,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -10454,7 +10567,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -10466,7 +10579,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="5">
-        <v>340.13799999999998</v>
+        <v>30.138000000000002</v>
       </c>
       <c r="F17" s="6">
         <v>30.015999999999998</v>
@@ -10519,7 +10632,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -10584,7 +10697,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -10649,7 +10762,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -10714,7 +10827,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -10774,12 +10887,12 @@
         <v>0</v>
       </c>
       <c r="U21" s="9">
-        <v>2.9000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -10844,7 +10957,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -10909,7 +11022,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -10974,7 +11087,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -10998,7 +11111,7 @@
         <v>50.6</v>
       </c>
       <c r="I25" s="1">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="J25" s="6">
         <v>61.2</v>
@@ -11039,7 +11152,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -11104,7 +11217,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -11169,7 +11282,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -11234,7 +11347,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -11299,7 +11412,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -11364,7 +11477,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -11429,7 +11542,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -11494,7 +11607,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -11594,11 +11707,15 @@
       <c r="N34" s="12">
         <v>90.6</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.3</v>
       </c>
@@ -11608,7 +11725,7 @@
       <c r="T34" s="12">
         <v>6.2</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="25">
         <v>3.86</v>
       </c>
     </row>
@@ -11629,13 +11746,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8F88C9-B23F-4F2A-A610-B51C3EC0FD98}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="L25" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
@@ -11643,34 +11761,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -13727,11 +13845,15 @@
       <c r="N34" s="12">
         <v>89.5</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.9</v>
       </c>
@@ -13741,7 +13863,7 @@
       <c r="T34" s="12">
         <v>7.3</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="25">
         <v>4.34</v>
       </c>
     </row>
@@ -13761,11 +13883,11 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC329757-9589-43BA-9830-B0C05F54B799}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
+      <pane ySplit="3" topLeftCell="K27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -13785,34 +13907,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="25" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="30"/>
+      <c r="T2" s="36"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -15869,11 +15991,15 @@
       <c r="N34" s="12">
         <v>91.7</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
-        <v>2.7</v>
-      </c>
-      <c r="Q34" s="11"/>
+        <v>2.1</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.5</v>
       </c>
@@ -15883,9 +16009,26 @@
       <c r="T34" s="12">
         <v>7.6</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="25">
         <v>8.91</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15905,8 +16048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D50969-602C-407C-90E2-38F88EF089F3}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView topLeftCell="L29" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15919,34 +16062,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -18003,11 +18146,15 @@
       <c r="N34" s="12">
         <v>88.5</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.2</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>0.7</v>
       </c>
@@ -18037,11 +18184,11 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5B7868-56EE-4A9A-910A-A0CD109A2F92}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:U38"/>
+  <dimension ref="A2:XFD38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA45" sqref="AA45"/>
+      <pane ySplit="3" topLeftCell="I30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -18061,34 +18208,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -20043,7 +20190,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21 16384:16384">
       <c r="A33" s="5" t="s">
         <v>76</v>
       </c>
@@ -20108,7 +20255,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21 16384:16384">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -20145,11 +20292,15 @@
       <c r="N34" s="12">
         <v>88.5</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.7</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2</v>
       </c>
@@ -20163,7 +20314,25 @@
         <v>5.117</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="35" spans="1:21 16384:16384">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="XFD35"/>
+    </row>
+    <row r="38" spans="1:21 16384:16384">
       <c r="P38" s="24"/>
     </row>
   </sheetData>
@@ -20184,8 +20353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A310F85-A627-4FFA-A76E-4BA45485986E}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView topLeftCell="L29" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20198,34 +20367,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -22282,11 +22451,15 @@
       <c r="N34" s="12">
         <v>91</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.6</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.6</v>
       </c>
@@ -22317,8 +22490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B67C626-385D-4BB4-83E7-BBFACA9022E8}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView topLeftCell="L23" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22331,34 +22504,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -22965,7 +23138,7 @@
         <v>29.754000000000001</v>
       </c>
       <c r="F12" s="6">
-        <v>29.03</v>
+        <v>29.93</v>
       </c>
       <c r="G12" s="1">
         <v>53.4</v>
@@ -24368,10 +24541,13 @@
       <c r="R33" s="6">
         <v>2</v>
       </c>
+      <c r="S33" s="1">
+        <v>7</v>
+      </c>
       <c r="T33" s="1">
         <v>10</v>
       </c>
-      <c r="U33" s="2">
+      <c r="U33" s="30">
         <v>1.147</v>
       </c>
     </row>
@@ -24382,51 +24558,55 @@
       <c r="D34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="26">
         <v>29.814</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="27">
         <v>29.831</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="28">
         <v>57.1</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="26">
         <v>54.6</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="26">
         <v>51.4</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="27">
         <v>61.8</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="28">
         <v>0.39400000000000002</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="27">
         <v>0.39100000000000001</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="28">
         <v>84.9</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="27">
         <v>91.4</v>
       </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="11">
+      <c r="O34" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="26">
         <v>3.1</v>
       </c>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="12">
+      <c r="Q34" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="27">
         <v>2.6</v>
       </c>
-      <c r="S34" s="10">
+      <c r="S34" s="28">
         <v>9.1</v>
       </c>
-      <c r="T34" s="12">
+      <c r="T34" s="27">
         <v>7.8</v>
       </c>
-      <c r="U34" s="13">
+      <c r="U34" s="29">
         <v>5.2539999999999996</v>
       </c>
     </row>
@@ -24447,8 +24627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24461,34 +24641,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -26545,11 +26725,15 @@
       <c r="N34" s="12">
         <v>90.9</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.3</v>
       </c>
@@ -26559,7 +26743,7 @@
       <c r="T34" s="12">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="25">
         <v>5.34</v>
       </c>
     </row>
@@ -26580,8 +26764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198EE2E4-A17F-42E2-BEC0-BDCB486A0EB2}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView topLeftCell="J24" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26594,34 +26778,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -26705,7 +26889,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>29.963000000000001</v>
+        <v>29.693000000000001</v>
       </c>
       <c r="F4" s="6">
         <v>29.681000000000001</v>
@@ -26770,7 +26954,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>20.747</v>
+        <v>29.747</v>
       </c>
       <c r="F5" s="6">
         <v>29.643999999999998</v>
@@ -28676,11 +28860,15 @@
       <c r="N34" s="12">
         <v>91</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.7</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.5</v>
       </c>
@@ -28710,11 +28898,11 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43E2027-8566-4F24-BD57-2C2DEF03F051}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A2:U37"/>
+  <dimension ref="A2:XFD37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
+      <pane ySplit="3" topLeftCell="J26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -28734,34 +28922,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -29371,7 +29559,7 @@
         <v>29.905000000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1">
         <v>47.1</v>
@@ -30716,7 +30904,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21 16384:16384">
       <c r="A33" s="5" t="s">
         <v>88</v>
       </c>
@@ -30781,7 +30969,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21 16384:16384">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -30818,11 +31006,15 @@
       <c r="N34" s="12">
         <v>97.7</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.4</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>3.2</v>
       </c>
@@ -30832,13 +31024,33 @@
       <c r="T34" s="12">
         <v>9.1999999999999993</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="25">
         <v>15.89</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="35" spans="1:21 16384:16384">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="XFD35"/>
+    </row>
+    <row r="37" spans="1:21 16384:16384">
       <c r="U37" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -30859,8 +31071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3289CD-9D97-49EF-92C4-FFFF5740CCC3}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView topLeftCell="J22" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30873,34 +31085,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -30972,7 +31184,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -31037,7 +31249,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -31102,7 +31314,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -31167,7 +31379,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -31232,7 +31444,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -31297,7 +31509,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -31362,7 +31574,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -31427,7 +31639,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -31492,7 +31704,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -31557,7 +31769,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -31622,7 +31834,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -31687,7 +31899,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -31752,7 +31964,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -31817,7 +32029,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -31882,7 +32094,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -31941,13 +32153,13 @@
       <c r="T18" s="1">
         <v>9</v>
       </c>
-      <c r="U18" s="9" t="s">
-        <v>91</v>
+      <c r="U18" s="9">
+        <v>1.23</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -32012,7 +32224,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -32077,7 +32289,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -32142,7 +32354,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -32207,7 +32419,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -32272,7 +32484,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -32337,7 +32549,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -32402,7 +32614,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -32467,7 +32679,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -32532,7 +32744,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -32597,7 +32809,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -32662,7 +32874,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -32727,7 +32939,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -32792,7 +33004,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -32857,7 +33069,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -32957,11 +33169,15 @@
       <c r="N34" s="12">
         <v>92</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>3.1</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.7</v>
       </c>
@@ -32992,8 +33208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9439A7F5-7EB0-4803-AE7D-1F1798F594DA}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33006,34 +33222,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -34651,7 +34867,7 @@
         <v>29</v>
       </c>
       <c r="R27" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S27" s="1">
         <v>1</v>
@@ -35041,7 +35257,7 @@
         <v>29</v>
       </c>
       <c r="R33" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S33" s="1">
         <v>3</v>
@@ -35090,11 +35306,15 @@
       <c r="N34" s="12">
         <v>88.3</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>3</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.1</v>
       </c>
@@ -35123,11 +35343,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A07E7D3-C7C6-4C1F-B024-26DDB1B63117}">
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U34" sqref="U34"/>
+      <pane ySplit="3" topLeftCell="I27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -35147,34 +35367,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -35338,7 +35558,7 @@
         <v>43.7</v>
       </c>
       <c r="J5" s="6">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="K5" s="1">
         <v>0.308</v>
@@ -36408,7 +36628,7 @@
         <v>9</v>
       </c>
       <c r="T21" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="U21" s="9" t="s">
         <v>22</v>
@@ -36428,7 +36648,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="5">
-        <v>29.666</v>
+        <v>29.565999999999999</v>
       </c>
       <c r="F22" s="6">
         <v>29.446000000000002</v>
@@ -37231,11 +37451,15 @@
       <c r="N34" s="12">
         <v>87.5</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.1</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.3</v>
       </c>
@@ -37245,9 +37469,26 @@
       <c r="T34" s="12">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="25">
         <v>4.38</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -37266,11 +37507,11 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BEAC26-C5B0-45DF-8883-8A32E1429DC5}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X44" sqref="X44"/>
+      <pane ySplit="3" topLeftCell="H28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -37290,34 +37531,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -37400,8 +37641,12 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" s="1">
         <v>50.3</v>
       </c>
@@ -37461,8 +37706,12 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="1">
         <v>50.1</v>
       </c>
@@ -37522,8 +37771,12 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="1">
         <v>53.7</v>
       </c>
@@ -37583,8 +37836,12 @@
       <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="1">
         <v>49.3</v>
       </c>
@@ -37644,8 +37901,12 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="1">
         <v>51.1</v>
       </c>
@@ -37705,8 +37966,12 @@
       <c r="D9" s="1">
         <v>6</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="1">
         <v>57.3</v>
       </c>
@@ -37766,8 +38031,12 @@
       <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="1">
         <v>55</v>
       </c>
@@ -37827,8 +38096,12 @@
       <c r="D11" s="1">
         <v>8</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="1">
         <v>54.1</v>
       </c>
@@ -37888,8 +38161,12 @@
       <c r="D12" s="1">
         <v>9</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="1">
         <v>51.3</v>
       </c>
@@ -37949,8 +38226,12 @@
       <c r="D13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="1">
         <v>59.2</v>
       </c>
@@ -38010,8 +38291,12 @@
       <c r="D14" s="1">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G14" s="1">
         <v>60.1</v>
       </c>
@@ -38071,8 +38356,12 @@
       <c r="D15" s="1">
         <v>12</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="1">
         <v>57.1</v>
       </c>
@@ -38132,8 +38421,12 @@
       <c r="D16" s="1">
         <v>13</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G16" s="1">
         <v>57.3</v>
       </c>
@@ -38193,8 +38486,12 @@
       <c r="D17" s="1">
         <v>14</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G17" s="1">
         <v>54</v>
       </c>
@@ -38254,8 +38551,12 @@
       <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G18" s="1">
         <v>58.4</v>
       </c>
@@ -38315,8 +38616,12 @@
       <c r="D19" s="1">
         <v>16</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G19" s="1">
         <v>59.1</v>
       </c>
@@ -38360,7 +38665,7 @@
         <v>10</v>
       </c>
       <c r="U19" s="9">
-        <v>151</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -38376,8 +38681,12 @@
       <c r="D20" s="1">
         <v>17</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G20" s="1">
         <v>52.9</v>
       </c>
@@ -38437,8 +38746,12 @@
       <c r="D21" s="1">
         <v>18</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G21" s="1">
         <v>58</v>
       </c>
@@ -38498,8 +38811,12 @@
       <c r="D22" s="1">
         <v>19</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G22" s="1">
         <v>59</v>
       </c>
@@ -38559,8 +38876,12 @@
       <c r="D23" s="1">
         <v>20</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G23" s="1">
         <v>57.7</v>
       </c>
@@ -38620,8 +38941,12 @@
       <c r="D24" s="1">
         <v>21</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G24" s="1">
         <v>54.6</v>
       </c>
@@ -38681,8 +39006,12 @@
       <c r="D25" s="1">
         <v>22</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G25" s="1">
         <v>53.7</v>
       </c>
@@ -38742,8 +39071,12 @@
       <c r="D26" s="1">
         <v>23</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G26" s="1">
         <v>56.8</v>
       </c>
@@ -38803,8 +39136,12 @@
       <c r="D27" s="1">
         <v>24</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G27" s="1">
         <v>52.2</v>
       </c>
@@ -38864,8 +39201,12 @@
       <c r="D28" s="1">
         <v>25</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G28" s="1">
         <v>52.9</v>
       </c>
@@ -38925,8 +39266,12 @@
       <c r="D29" s="1">
         <v>26</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G29" s="1">
         <v>52.3</v>
       </c>
@@ -38986,8 +39331,12 @@
       <c r="D30" s="1">
         <v>27</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G30" s="1">
         <v>59</v>
       </c>
@@ -39047,8 +39396,12 @@
       <c r="D31" s="1">
         <v>28</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G31" s="1">
         <v>58.8</v>
       </c>
@@ -39108,8 +39461,12 @@
       <c r="D32" s="1">
         <v>29</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G32" s="1">
         <v>54.6</v>
       </c>
@@ -39169,8 +39526,12 @@
       <c r="D33" s="1">
         <v>30</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G33" s="1">
         <v>55.4</v>
       </c>
@@ -39224,25 +39585,25 @@
       <c r="D34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="10">
+      <c r="E34" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="28">
         <v>55.2</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="26">
         <v>51.6</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="26">
         <v>47</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="27">
         <v>61.3</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="28">
         <v>0.35199999999999998</v>
       </c>
       <c r="L34" s="12">
@@ -39254,11 +39615,15 @@
       <c r="N34" s="12">
         <v>86.6</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.4</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.3</v>
       </c>
@@ -39273,22 +39638,38 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="E35" s="1" t="s">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="D36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="E36" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="E36:K36"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -39305,8 +39686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B72303-BE3D-4EF5-B3F3-F954C1028531}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView topLeftCell="K22" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39316,34 +39697,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -39699,7 +40080,7 @@
         <v>51.7</v>
       </c>
       <c r="I8" s="1">
-        <v>2.1</v>
+        <v>44.1</v>
       </c>
       <c r="J8" s="6">
         <v>59.8</v>
@@ -39764,7 +40145,7 @@
         <v>53.3</v>
       </c>
       <c r="I9" s="1">
-        <v>61.7</v>
+        <v>49.7</v>
       </c>
       <c r="J9" s="6">
         <v>58.6</v>
@@ -39829,7 +40210,7 @@
         <v>53.9</v>
       </c>
       <c r="I10" s="1">
-        <v>58.4</v>
+        <v>51.1</v>
       </c>
       <c r="J10" s="6">
         <v>56.9</v>
@@ -39894,7 +40275,7 @@
         <v>54.3</v>
       </c>
       <c r="I11" s="1">
-        <v>62.2</v>
+        <v>51.4</v>
       </c>
       <c r="J11" s="6">
         <v>62.2</v>
@@ -40683,7 +41064,7 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="L23" s="6">
-        <v>2.1</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="M23" s="1">
         <v>63</v>
@@ -40739,7 +41120,7 @@
         <v>55.3</v>
       </c>
       <c r="I24" s="1">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="J24" s="6">
         <v>65.2</v>
@@ -40748,7 +41129,7 @@
         <v>0.42199999999999999</v>
       </c>
       <c r="L24" s="6">
-        <v>47.2</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="M24" s="1">
         <v>81</v>
@@ -40813,7 +41194,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="L25" s="6">
-        <v>54.1</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="M25" s="1">
         <v>66</v>
@@ -40878,7 +41259,7 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="L26" s="6">
-        <v>54</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="M26" s="1">
         <v>73</v>
@@ -40943,7 +41324,7 @@
         <v>0.29599999999999999</v>
       </c>
       <c r="L27" s="6">
-        <v>52.5</v>
+        <v>0.31</v>
       </c>
       <c r="M27" s="1">
         <v>61</v>
@@ -41008,7 +41389,7 @@
         <v>0.34899999999999998</v>
       </c>
       <c r="L28" s="6">
-        <v>50.7</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="M28" s="1">
         <v>91</v>
@@ -41073,7 +41454,7 @@
         <v>0.377</v>
       </c>
       <c r="L29" s="6">
-        <v>52</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="M29" s="1">
         <v>94</v>
@@ -41138,7 +41519,7 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="L30" s="6">
-        <v>48.6</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="M30" s="1">
         <v>78</v>
@@ -41203,7 +41584,7 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="L31" s="6">
-        <v>48.3</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="M31" s="1">
         <v>69</v>
@@ -41268,7 +41649,7 @@
         <v>0.36199999999999999</v>
       </c>
       <c r="L32" s="6">
-        <v>51.8</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="M32" s="1">
         <v>69</v>
@@ -41333,7 +41714,7 @@
         <v>0.316</v>
       </c>
       <c r="L33" s="6">
-        <v>53.6</v>
+        <v>0.36</v>
       </c>
       <c r="M33" s="1">
         <v>63</v>
@@ -41360,7 +41741,7 @@
         <v>10</v>
       </c>
       <c r="U33" s="22">
-        <v>0.57999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
@@ -41392,7 +41773,7 @@
         <v>0.35799999999999998</v>
       </c>
       <c r="L34" s="12">
-        <v>54.2</v>
+        <v>0.36</v>
       </c>
       <c r="M34" s="10">
         <v>78</v>
@@ -41400,11 +41781,15 @@
       <c r="N34" s="12">
         <v>84.9</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>3</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.2999999999999998</v>
       </c>
@@ -41434,11 +41819,11 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D2AE6-BEC7-4F51-B744-4A0ACE3E49DE}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="K27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -41458,34 +41843,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -42027,7 +42412,7 @@
         <v>29.44</v>
       </c>
       <c r="F11" s="6">
-        <v>20.484999999999999</v>
+        <v>29.484999999999999</v>
       </c>
       <c r="G11" s="1">
         <v>57.2</v>
@@ -42222,7 +42607,7 @@
         <v>29.878</v>
       </c>
       <c r="F14" s="6">
-        <v>30.045999999999999</v>
+        <v>29.875</v>
       </c>
       <c r="G14" s="1">
         <v>54</v>
@@ -42287,7 +42672,7 @@
         <v>29.916</v>
       </c>
       <c r="F15" s="6">
-        <v>30.082999999999998</v>
+        <v>30.045999999999999</v>
       </c>
       <c r="G15" s="1">
         <v>58.9</v>
@@ -42352,7 +42737,7 @@
         <v>30.125</v>
       </c>
       <c r="F16" s="6">
-        <v>29.908000000000001</v>
+        <v>30.082999999999998</v>
       </c>
       <c r="G16" s="1">
         <v>55.6</v>
@@ -42417,7 +42802,7 @@
         <v>29.963999999999999</v>
       </c>
       <c r="F17" s="6">
-        <v>29.734999999999999</v>
+        <v>29.908000000000001</v>
       </c>
       <c r="G17" s="1">
         <v>57.6</v>
@@ -42482,7 +42867,7 @@
         <v>29.824999999999999</v>
       </c>
       <c r="F18" s="6">
-        <v>29.486000000000001</v>
+        <v>29.734999999999999</v>
       </c>
       <c r="G18" s="1">
         <v>61.4</v>
@@ -42547,7 +42932,7 @@
         <v>29.579000000000001</v>
       </c>
       <c r="F19" s="6">
-        <v>29.728999999999999</v>
+        <v>29.486000000000001</v>
       </c>
       <c r="G19" s="1">
         <v>54.3</v>
@@ -42612,7 +42997,7 @@
         <v>29.561</v>
       </c>
       <c r="F20" s="6">
-        <v>29.77</v>
+        <v>29.728999999999999</v>
       </c>
       <c r="G20" s="1">
         <v>55.4</v>
@@ -42677,7 +43062,7 @@
         <v>29.82</v>
       </c>
       <c r="F21" s="6">
-        <v>29.488</v>
+        <v>29.77</v>
       </c>
       <c r="G21" s="1">
         <v>60.3</v>
@@ -42742,7 +43127,7 @@
         <v>29.553000000000001</v>
       </c>
       <c r="F22" s="6">
-        <v>29.696999999999999</v>
+        <v>29.488</v>
       </c>
       <c r="G22" s="1">
         <v>58.6</v>
@@ -42807,7 +43192,7 @@
         <v>29.603000000000002</v>
       </c>
       <c r="F23" s="6">
-        <v>29.614999999999998</v>
+        <v>29.696999999999999</v>
       </c>
       <c r="G23" s="1">
         <v>59.2</v>
@@ -42872,7 +43257,7 @@
         <v>29.338999999999999</v>
       </c>
       <c r="F24" s="6">
-        <v>29.824000000000002</v>
+        <v>29.614999999999998</v>
       </c>
       <c r="G24" s="1">
         <v>58.7</v>
@@ -42937,7 +43322,7 @@
         <v>29.847999999999999</v>
       </c>
       <c r="F25" s="6">
-        <v>29.484999999999999</v>
+        <v>29.824000000000002</v>
       </c>
       <c r="G25" s="1">
         <v>57.1</v>
@@ -43002,7 +43387,7 @@
         <v>29.600999999999999</v>
       </c>
       <c r="F26" s="6">
-        <v>29.530999999999999</v>
+        <v>29.484999999999999</v>
       </c>
       <c r="G26" s="1">
         <v>56.5</v>
@@ -43067,7 +43452,7 @@
         <v>29.477</v>
       </c>
       <c r="F27" s="6">
-        <v>29.654</v>
+        <v>29.530999999999999</v>
       </c>
       <c r="G27" s="1">
         <v>53.8</v>
@@ -43132,7 +43517,7 @@
         <v>29.591000000000001</v>
       </c>
       <c r="F28" s="6">
-        <v>29.526</v>
+        <v>29.654</v>
       </c>
       <c r="G28" s="1">
         <v>53.7</v>
@@ -43197,7 +43582,7 @@
         <v>29.39</v>
       </c>
       <c r="F29" s="6">
-        <v>29.434999999999999</v>
+        <v>29.526</v>
       </c>
       <c r="G29" s="1">
         <v>55</v>
@@ -43262,7 +43647,7 @@
         <v>29.302</v>
       </c>
       <c r="F30" s="6">
-        <v>29.681000000000001</v>
+        <v>29.434999999999999</v>
       </c>
       <c r="G30" s="1">
         <v>60.7</v>
@@ -43327,7 +43712,7 @@
         <v>29.463000000000001</v>
       </c>
       <c r="F31" s="6">
-        <v>29.818000000000001</v>
+        <v>29.681000000000001</v>
       </c>
       <c r="G31" s="1">
         <v>56.1</v>
@@ -43392,7 +43777,7 @@
         <v>29.721</v>
       </c>
       <c r="F32" s="6">
-        <v>29.585000000000001</v>
+        <v>29.818000000000001</v>
       </c>
       <c r="G32" s="1">
         <v>58.7</v>
@@ -43456,7 +43841,9 @@
       <c r="E33" s="5">
         <v>29.882000000000001</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="6">
+        <v>29.585000000000001</v>
+      </c>
       <c r="G33" s="1">
         <v>56.7</v>
       </c>
@@ -43540,11 +43927,15 @@
       <c r="N34" s="12">
         <v>85.9</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.4</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.4</v>
       </c>
@@ -43557,6 +43948,23 @@
       <c r="U34" s="13">
         <v>4.899</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -43574,11 +43982,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227A18FA-8DBA-4F26-BBB0-AF4A42A8F1FC}">
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="F21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U46" sqref="U46"/>
+      <pane ySplit="3" topLeftCell="M27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -43598,34 +44006,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -45682,11 +46090,15 @@
       <c r="N34" s="12">
         <v>90.9</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.2</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>0.7</v>
       </c>
@@ -45699,6 +46111,23 @@
       <c r="U34" s="13">
         <v>3.5710000000000002</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -45717,11 +46146,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CBB8FD-655A-4863-88F4-7CCF8E717079}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="F4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+      <pane ySplit="3" topLeftCell="L26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -45741,34 +46170,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -46632,7 +47061,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="5">
-        <v>30.1</v>
+        <v>30.11</v>
       </c>
       <c r="F16" s="6">
         <v>30.119</v>
@@ -47412,7 +47841,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="5">
-        <v>29.503</v>
+        <v>29.501000000000001</v>
       </c>
       <c r="F28" s="6">
         <v>29.611000000000001</v>
@@ -47814,7 +48243,7 @@
         <v>58</v>
       </c>
       <c r="K34" s="10">
-        <v>0.35299999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="L34" s="12">
         <v>0.34899999999999998</v>
@@ -47825,11 +48254,15 @@
       <c r="N34" s="12">
         <v>92.3</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>3.4</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>2.1</v>
       </c>
@@ -47842,6 +48275,23 @@
       <c r="U34" s="13">
         <v>4.4009999999999998</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -47862,8 +48312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85204B69-BD73-463D-846C-48564885D419}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47876,34 +48326,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -48100,7 +48550,7 @@
         <v>10</v>
       </c>
       <c r="U5" s="9">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
@@ -48522,7 +48972,7 @@
         <v>50.1</v>
       </c>
       <c r="J12" s="6">
-        <v>60.4</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="K12" s="1">
         <v>0.41</v>
@@ -48587,7 +49037,7 @@
         <v>50.1</v>
       </c>
       <c r="J13" s="6">
-        <v>60.5</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="K13" s="1">
         <v>0.40400000000000003</v>
@@ -48652,7 +49102,7 @@
         <v>41.8</v>
       </c>
       <c r="J14" s="6">
-        <v>60.1</v>
+        <v>62.2</v>
       </c>
       <c r="K14" s="1">
         <v>0.40600000000000003</v>
@@ -48782,7 +49232,7 @@
         <v>50.6</v>
       </c>
       <c r="J16" s="6">
-        <v>61.4</v>
+        <v>60.2</v>
       </c>
       <c r="K16" s="1">
         <v>0.371</v>
@@ -48847,7 +49297,7 @@
         <v>48.9</v>
       </c>
       <c r="J17" s="6">
-        <v>67.8</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="K17" s="1">
         <v>0.373</v>
@@ -49960,13 +50410,17 @@
       <c r="N34" s="12">
         <v>85.5</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.4</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S34" s="10">
         <v>7.9</v>
@@ -49974,7 +50428,7 @@
       <c r="T34" s="12">
         <v>6.1</v>
       </c>
-      <c r="U34" s="31">
+      <c r="U34" s="25">
         <v>3.79</v>
       </c>
     </row>
@@ -49994,11 +50448,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CD3842-9C61-4617-AE21-5E6E6D85A650}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U42" sqref="U42"/>
+      <pane ySplit="3" topLeftCell="I29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -50018,34 +50472,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -52102,11 +52556,15 @@
       <c r="N34" s="12">
         <v>88.1</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.4</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.6</v>
       </c>
@@ -52119,6 +52577,23 @@
       <c r="U34" s="13">
         <v>4.0129999999999999</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -52136,11 +52611,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3C7290-F441-421E-ACDE-BDA0F2227C67}">
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+      <pane ySplit="3" topLeftCell="I27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -52160,34 +52635,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -54244,11 +54719,15 @@
       <c r="N34" s="12">
         <v>86.4</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.5</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.5</v>
       </c>
@@ -54261,6 +54740,23 @@
       <c r="U34" s="13">
         <v>3.2559999999999998</v>
       </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -54279,11 +54775,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD2F424-5C0C-452B-9901-DCB60439C948}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:U34"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="E4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+      <pane ySplit="3" topLeftCell="K26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -54303,34 +54799,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -56358,10 +56854,10 @@
         <v>34</v>
       </c>
       <c r="E34" s="11">
-        <v>29.722000000000001</v>
+        <v>29.777000000000001</v>
       </c>
       <c r="F34" s="12">
-        <v>29.736000000000001</v>
+        <v>29.795999999999999</v>
       </c>
       <c r="G34" s="10">
         <v>53.3</v>
@@ -56387,11 +56883,15 @@
       <c r="N34" s="12">
         <v>89.2</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>1.6</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.4</v>
       </c>
@@ -56402,8 +56902,25 @@
         <v>7.9</v>
       </c>
       <c r="U34" s="13">
-        <v>6.6130000000000004</v>
-      </c>
+        <v>6.6150000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="P35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -56423,8 +56940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABDBAB1-DE1F-4A3C-9BCF-CF6F687CA5A3}">
   <dimension ref="A2:U34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="K23" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56437,34 +56954,34 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="25" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="25" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="25" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="7" t="s">
         <v>6</v>
       </c>
@@ -58283,7 +58800,7 @@
         <v>10</v>
       </c>
       <c r="T30" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="U30" s="9">
         <v>1.2E-2</v>
@@ -58521,11 +59038,15 @@
       <c r="N34" s="12">
         <v>92.4</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="P34" s="11">
         <v>2.6</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="R34" s="12">
         <v>1.3</v>
       </c>
@@ -58553,87 +59074,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35917</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35917</Url>
-      <Description>H7Q62YT2XCZT-908671883-35917</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11f18feb37c278a512788b2e5a06b2f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d97308c79b2bb5835a55e257627f43a5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fab658b03a225995fedfaf9f5ddfec44">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7ac2c30bc9a14497f60988622dc2253" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
     <xsd:import namespace="502a79df-4f52-4757-ac2f-753e065f4c93"/>
@@ -58665,6 +59107,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -58763,6 +59206,11 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="29" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="30" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -58932,18 +59380,97 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35917</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35917</Url>
+      <Description>H7Q62YT2XCZT-908671883-35917</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4A5A464-6269-4985-8C44-D11CB6FF41C5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D1EE087-B545-489A-8A56-01AADD4DEEDD}"/>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF71817D-A7C4-4C42-8B96-43EC8F71462F}"/>
 </file>